--- a/medicine/Handicap/Gravity_Is_My_Enemy/Gravity_Is_My_Enemy.xlsx
+++ b/medicine/Handicap/Gravity_Is_My_Enemy/Gravity_Is_My_Enemy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gravity Is My Enemy est un film documentaire américain réalisé par John C. Joseph et sorti en 1977.
 Il a remporté l'Oscar du meilleur court métrage documentaire en 1978.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Hicks est un artiste californien, devenu tétraplégique en tombant d'un arbre à l'âge de 14 ans.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : John C. Joseph
 Production : Jan Stussy, John C. Joseph
@@ -578,10 +594,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mark Hicks : lui-même
-Jan Stussy : lui-même[1]</t>
+Jan Stussy : lui-même</t>
         </is>
       </c>
     </row>
@@ -609,9 +627,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1978 : Oscar du meilleur court métrage documentaire[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1978 : Oscar du meilleur court métrage documentaire.</t>
         </is>
       </c>
     </row>
